--- a/data/trans_orig/P56$nadie-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56$nadie-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F503A98B-9226-489E-B3EA-8B2E45CAF5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE8847F-B9B8-4901-81D0-C1EA3CA5FE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{776C82F2-FCC8-4949-ABFC-CC1B8FEBB87C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F7ABE418-0EB3-4449-A0EA-0C6A8933AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="299">
-  <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="738">
+  <si>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -62,7 +62,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nadie</t>
@@ -98,19 +98,352 @@
     <t>Otro</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>6,98%</t>
@@ -233,9 +566,6 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>7,23%</t>
   </si>
   <si>
@@ -275,9 +605,6 @@
     <t>16,22%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>3,54%</t>
   </si>
   <si>
@@ -308,7 +635,361 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2012</t>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -413,9 +1094,6 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
     <t>0,96%</t>
   </si>
   <si>
@@ -446,9 +1124,6 @@
     <t>9,59%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
     <t>13,13%</t>
   </si>
   <si>
@@ -512,7 +1187,328 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2016</t>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>8,09%</t>
@@ -569,9 +1565,6 @@
     <t>16,6%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
     <t>25,96%</t>
   </si>
   <si>
@@ -602,9 +1595,6 @@
     <t>26,4%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
     <t>17,83%</t>
   </si>
   <si>
@@ -614,9 +1604,6 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
     <t>29,37%</t>
   </si>
   <si>
@@ -629,21 +1616,12 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
     <t>7,12%</t>
   </si>
   <si>
@@ -674,15 +1652,9 @@
     <t>13,04%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
     <t>6,5%</t>
   </si>
   <si>
@@ -692,9 +1664,6 @@
     <t>10,29%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
@@ -707,9 +1676,6 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
@@ -719,201 +1685,552 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas en 2023</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades básicas (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
     <t>1,12%</t>
   </si>
   <si>
@@ -926,16 +2243,16 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +2664,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77372575-9FBE-4CF6-ACD2-D99B63E7392D}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710767DA-FC40-4EF9-9204-3292F46C2764}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3107,19 +4424,19 @@
         <v>27</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3128,31 +4445,31 @@
         <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="K55" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3161,31 +4478,31 @@
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3194,31 +4511,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3227,31 +4544,31 @@
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="I58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="J58" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3260,31 +4577,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3293,31 +4610,31 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3326,31 +4643,31 @@
         <v>16</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3359,31 +4676,31 @@
         <v>17</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3392,66 +4709,66 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3460,31 +4777,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3493,31 +4810,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3526,31 +4843,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3559,31 +4876,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3592,31 +4909,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3625,31 +4942,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3658,31 +4975,31 @@
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3691,31 +5008,31 @@
         <v>17</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3724,45 +5041,378 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>88</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -3775,8 +5425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A0D09-3188-42FB-A78D-E37041587254}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ED8AA1-8A58-43E8-AA2B-BD258B57C008}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3792,7 +5442,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5523,31 +7173,31 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -5556,31 +7206,31 @@
         <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -5589,31 +7239,31 @@
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -5622,31 +7272,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -5655,31 +7305,31 @@
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -5688,31 +7338,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="K59" s="7" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -5721,31 +7371,31 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -5754,31 +7404,31 @@
         <v>16</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -5787,31 +7437,31 @@
         <v>17</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -5820,66 +7470,66 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -5888,31 +7538,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -5921,31 +7571,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>94</v>
+        <v>271</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -5954,31 +7604,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>122</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -5987,31 +7637,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -6020,31 +7670,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -6053,31 +7703,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -6086,31 +7736,31 @@
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -6119,31 +7769,31 @@
         <v>17</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -6152,45 +7802,378 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>88</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6203,8 +8186,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31827336-F118-4A29-AC0C-D17C4937476B}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60160EAD-CF63-44BC-B64C-CBC67FC2B3EC}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6220,7 +8203,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7951,31 +9934,31 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>158</v>
+        <v>383</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>161</v>
+        <v>386</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>162</v>
+        <v>387</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>163</v>
+        <v>388</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>164</v>
+        <v>389</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>165</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -7984,31 +9967,31 @@
         <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>166</v>
+        <v>391</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>168</v>
+        <v>393</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>170</v>
+        <v>395</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>172</v>
+        <v>397</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>174</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -8017,31 +10000,31 @@
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>176</v>
+        <v>401</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>179</v>
+        <v>404</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>181</v>
+        <v>406</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>182</v>
+        <v>407</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -8050,31 +10033,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>185</v>
+        <v>410</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>186</v>
+        <v>411</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>187</v>
+        <v>412</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>188</v>
+        <v>413</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>190</v>
+        <v>415</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>192</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -8083,31 +10066,31 @@
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>194</v>
+        <v>418</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>196</v>
+        <v>419</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>197</v>
+        <v>420</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>199</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -8116,31 +10099,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>203</v>
+        <v>421</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>205</v>
+        <v>422</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -8149,31 +10132,31 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>214</v>
+        <v>427</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>216</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -8182,31 +10165,31 @@
         <v>16</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>219</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -8215,31 +10198,31 @@
         <v>17</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>220</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -8248,66 +10231,66 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>227</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>159</v>
+        <v>430</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>160</v>
+        <v>431</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>105</v>
+        <v>432</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>161</v>
+        <v>433</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>163</v>
+        <v>434</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>164</v>
+        <v>435</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>165</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -8316,31 +10299,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>166</v>
+        <v>437</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>167</v>
+        <v>438</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>168</v>
+        <v>439</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>169</v>
+        <v>440</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>170</v>
+        <v>441</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>171</v>
+        <v>442</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>172</v>
+        <v>443</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>173</v>
+        <v>444</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>174</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -8349,31 +10332,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>176</v>
+        <v>446</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>178</v>
+        <v>448</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>179</v>
+        <v>449</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>182</v>
+        <v>452</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>183</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -8382,31 +10365,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>186</v>
+        <v>456</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>188</v>
+        <v>458</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>189</v>
+        <v>459</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>192</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -8415,31 +10398,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>196</v>
+        <v>463</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>197</v>
+        <v>464</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -8448,31 +10431,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>200</v>
+        <v>466</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>202</v>
+        <v>467</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>203</v>
+        <v>468</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>204</v>
+        <v>469</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>205</v>
+        <v>470</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>206</v>
+        <v>471</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>207</v>
+        <v>409</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -8481,31 +10464,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>209</v>
+        <v>472</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>63</v>
+        <v>473</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>210</v>
+        <v>474</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>211</v>
+        <v>475</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>212</v>
+        <v>476</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>213</v>
+        <v>477</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>214</v>
+        <v>478</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>216</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -8514,31 +10497,31 @@
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>148</v>
+        <v>480</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>197</v>
+        <v>482</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>218</v>
+        <v>483</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -8547,31 +10530,31 @@
         <v>17</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>197</v>
+        <v>482</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>220</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -8580,45 +10563,378 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>221</v>
+        <v>485</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>88</v>
+      <c r="F83" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -8631,8 +10947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7432A8B-103A-4A90-B7BA-CFBAF8D949D5}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E00B9E-1EEC-49E7-9DB5-956486487F70}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8648,7 +10964,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>549</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10379,31 +12695,31 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>229</v>
+        <v>550</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>90</v>
+        <v>547</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>230</v>
+        <v>551</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>231</v>
+        <v>552</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>232</v>
+        <v>553</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>233</v>
+        <v>554</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>234</v>
+        <v>555</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>235</v>
+        <v>556</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>236</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -10412,31 +12728,31 @@
         <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>238</v>
+        <v>558</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>239</v>
+        <v>559</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>101</v>
+        <v>560</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>240</v>
+        <v>561</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>241</v>
+        <v>562</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>115</v>
+        <v>564</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>243</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -10445,31 +12761,31 @@
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>244</v>
+        <v>566</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>245</v>
+        <v>567</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>142</v>
+        <v>568</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>249</v>
+        <v>571</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>250</v>
+        <v>572</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>251</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -10478,31 +12794,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>253</v>
+        <v>574</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>254</v>
+        <v>575</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>255</v>
+        <v>576</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>256</v>
+        <v>577</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>257</v>
+        <v>578</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>35</v>
+        <v>579</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>252</v>
+        <v>580</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>258</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -10511,31 +12827,31 @@
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>193</v>
+        <v>586</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>263</v>
+        <v>587</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>264</v>
+        <v>588</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>265</v>
+        <v>589</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>266</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -10544,31 +12860,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>267</v>
+        <v>591</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>268</v>
+        <v>592</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>269</v>
+        <v>593</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>132</v>
+        <v>594</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>270</v>
+        <v>595</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>271</v>
+        <v>596</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>272</v>
+        <v>597</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>274</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -10577,31 +12893,31 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>275</v>
+        <v>599</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>276</v>
+        <v>600</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>277</v>
+        <v>601</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>278</v>
+        <v>602</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>279</v>
+        <v>603</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>280</v>
+        <v>604</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>281</v>
+        <v>605</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>282</v>
+        <v>606</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>283</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -10610,31 +12926,31 @@
         <v>16</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>287</v>
+        <v>607</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>290</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -10643,31 +12959,31 @@
         <v>17</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>292</v>
+        <v>607</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>293</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -10676,66 +12992,66 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>296</v>
+        <v>607</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>298</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>229</v>
+        <v>608</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>90</v>
+        <v>609</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>231</v>
+        <v>585</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>233</v>
+        <v>611</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>234</v>
+        <v>612</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>235</v>
+        <v>613</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>236</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -10744,31 +13060,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>237</v>
+        <v>614</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>238</v>
+        <v>615</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>239</v>
+        <v>616</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>101</v>
+        <v>617</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>240</v>
+        <v>618</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>242</v>
+        <v>619</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>115</v>
+        <v>620</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>243</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -10777,31 +13093,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>244</v>
+        <v>622</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>142</v>
+        <v>623</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>246</v>
+        <v>624</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>247</v>
+        <v>625</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>248</v>
+        <v>626</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>250</v>
+        <v>627</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>251</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -10810,31 +13126,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>252</v>
+        <v>629</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>253</v>
+        <v>630</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>254</v>
+        <v>631</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>255</v>
+        <v>632</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>256</v>
+        <v>633</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>257</v>
+        <v>634</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>35</v>
+        <v>635</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>252</v>
+        <v>636</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>258</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -10843,31 +13159,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>259</v>
+        <v>638</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>260</v>
+        <v>639</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>263</v>
+        <v>640</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>264</v>
+        <v>641</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -10876,31 +13192,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>267</v>
+        <v>642</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>268</v>
+        <v>643</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>269</v>
+        <v>644</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>132</v>
+        <v>645</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>270</v>
+        <v>646</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>271</v>
+        <v>647</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>272</v>
+        <v>648</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>273</v>
+        <v>649</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>274</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -10909,31 +13225,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>275</v>
+        <v>651</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>276</v>
+        <v>497</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>277</v>
+        <v>652</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>278</v>
+        <v>653</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>279</v>
+        <v>654</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>280</v>
+        <v>655</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>281</v>
+        <v>656</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>282</v>
+        <v>657</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>283</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -10942,31 +13258,31 @@
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>125</v>
+        <v>659</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>285</v>
+        <v>660</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>287</v>
+        <v>661</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>288</v>
+        <v>662</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>289</v>
+        <v>663</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -10975,31 +13291,31 @@
         <v>17</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>291</v>
+        <v>542</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>292</v>
+        <v>664</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>293</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -11008,45 +13324,378 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>284</v>
+        <v>666</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>295</v>
+        <v>667</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>293</v>
+        <v>668</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>296</v>
+        <v>669</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>297</v>
+        <v>670</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>218</v>
+        <v>380</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>298</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>88</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
